--- a/Project 2/Project 2.1/wolves_standard_stats_scouted.xlsx
+++ b/Project 2/Project 2.1/wolves_standard_stats_scouted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekchui/Documents/Programming/Personal/Projects/Football Analytics/Project 2/Project 2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015118ED-AB61-544C-BC2F-485D4DD39B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6960376C-A6AA-AC48-8BE7-5CEFD013B535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31300" yWindow="0" windowWidth="19900" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>Player</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>Jhon Arias</t>
-  </si>
-  <si>
-    <t>Samuel Lino</t>
   </si>
   <si>
     <t>Robert Renan</t>
@@ -734,8 +731,8 @@
   <dimension ref="A1:AI92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y36" sqref="Y36"/>
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI1" sqref="AE1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -749,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>52</v>
@@ -816,37 +813,37 @@
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
@@ -854,7 +851,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -920,7 +917,7 @@
         <v>176</v>
       </c>
       <c r="Y2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z2">
         <f>T2/H2</f>
@@ -1028,7 +1025,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1371,7 +1368,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -1714,7 +1711,7 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -1853,7 +1850,7 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -1924,7 +1921,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -1995,7 +1992,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -2338,7 +2335,7 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -2545,7 +2542,7 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
@@ -2611,7 +2608,7 @@
         <v>79</v>
       </c>
       <c r="Y28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z28">
         <f>T28/H28</f>
@@ -2651,7 +2648,7 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
@@ -2723,7 +2720,7 @@
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -2794,7 +2791,7 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
@@ -2860,7 +2857,7 @@
         <v>149</v>
       </c>
       <c r="Y31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z31">
         <f>T31/H31</f>
@@ -2900,7 +2897,7 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>29</v>
@@ -2966,12 +2963,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>29</v>
@@ -3037,115 +3034,35 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>60</v>
       </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="4">
-        <v>24</v>
-      </c>
-      <c r="E36" s="4">
-        <v>31</v>
-      </c>
-      <c r="F36" s="4">
-        <v>21</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1552</v>
-      </c>
-      <c r="H36" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="I36" s="4">
-        <v>3</v>
-      </c>
-      <c r="J36" s="4">
-        <v>4</v>
-      </c>
-      <c r="K36" s="4">
-        <v>7</v>
-      </c>
-      <c r="L36" s="4">
-        <v>3</v>
-      </c>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
-      <c r="N36" s="4">
-        <v>0</v>
-      </c>
-      <c r="O36" s="4">
-        <v>3</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>6</v>
-      </c>
-      <c r="R36" s="4">
-        <v>6</v>
-      </c>
-      <c r="S36" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="T36" s="4">
-        <v>8.9</v>
-      </c>
-      <c r="U36" s="4">
-        <v>72</v>
-      </c>
-      <c r="V36" s="4">
-        <v>73</v>
-      </c>
-      <c r="W36" s="4">
-        <v>179</v>
-      </c>
-      <c r="Z36">
-        <f>T36/H36</f>
-        <v>0.51744186046511631</v>
-      </c>
-      <c r="AA36">
-        <v>2.89</v>
-      </c>
-      <c r="AB36">
-        <f>(U36+V36+W36)/H36</f>
-        <v>18.837209302325583</v>
-      </c>
-      <c r="AC36">
-        <v>1.37</v>
-      </c>
-      <c r="AD36">
-        <v>4.49</v>
-      </c>
-      <c r="AE36">
-        <v>2.25</v>
-      </c>
-      <c r="AF36">
-        <v>0.41</v>
-      </c>
-      <c r="AG36">
-        <v>1.37</v>
-      </c>
-      <c r="AH36">
-        <v>0.78</v>
-      </c>
-      <c r="AI36">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>22</v>
@@ -3195,12 +3112,12 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>39</v>
@@ -3266,12 +3183,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>22</v>
@@ -3337,12 +3254,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
@@ -3408,12 +3325,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>22</v>
@@ -3479,12 +3396,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>29</v>
@@ -3550,15 +3467,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D43" s="4">
         <v>25</v>
@@ -3621,12 +3538,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>33</v>
@@ -3692,15 +3609,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="4">
         <v>19</v>
@@ -3763,12 +3680,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>29</v>
@@ -3813,12 +3730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>29</v>
@@ -3869,7 +3786,7 @@
       <c r="U47" s="4"/>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="X48" s="4"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.2">
@@ -5175,7 +5092,7 @@
         <v>28</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>29</v>
